--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>1.679690209968745e-35</v>
+        <v>1.3770216765436e-38</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.609169289070035e-35</v>
+        <v>3.494798747405194e-38</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.752175379591965e-35</v>
+        <v>5.075489758988828e-38</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>2.149576183445469e-35</v>
+        <v>4.945156969383436e-38</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>2.512841544225086e-35</v>
+        <v>4.951483244023339e-38</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>4.511846777922087e-35</v>
+        <v>5.150691751947615e-38</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>6.507918938470963e-35</v>
+        <v>4.279356568095608e-38</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.645517096024522e-34</v>
+        <v>4.385431144666926e-38</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>2.450178752038122e-34</v>
+        <v>3.21297183768731e-38</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>2.299574569945274e-34</v>
+        <v>3.70407273310761e-38</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>1.627127785710401e-34</v>
+        <v>2.645672571299841e-38</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>7.391294208811477e-35</v>
+        <v>2.160573863383004e-38</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>5.47402742110875e-35</v>
+        <v>4.873787237127434e-40</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>6.729700833739637e-35</v>
+        <v>2.647827407912039e-40</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>2.870258392202155e-35</v>
+        <v>2.656848705768591e-40</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>1.984930416690523e-35</v>
+        <v>2.221179984224601e-40</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>1.05862519708951e-35</v>
+        <v>2.235381498348227e-40</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>4.704488172579082e-36</v>
+        <v>2.827687982354016e-40</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>3.496060358360763e-36</v>
+        <v>2.282771389953642e-40</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.36710436730157e-36</v>
+        <v>2.606124967086967e-40</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3.714862597466744e-36</v>
+        <v>4.881077598793794e-40</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>4.35712759968688e-36</v>
+        <v>5.369324573048369e-40</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>3.936219375741199e-36</v>
+        <v>6.882063536319769e-40</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>7.668835523654385e-36</v>
+        <v>7.263554140467376e-40</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>1.073679596595156e-35</v>
+        <v>6.135844348907836e-40</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>2.231644270380987e-35</v>
+        <v>7.20172446287702e-40</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>4.761269738691379e-35</v>
+        <v>6.337425323736875e-40</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>3.994313874713366e-35</v>
+        <v>6.522263254188816e-40</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>1.852523530898606e-35</v>
+        <v>6.261685540710583e-40</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>8.220505974695841e-36</v>
+        <v>6.034567667818068e-40</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>3.499403504801298e-36</v>
+        <v>5.50477366683e-40</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>3.091261750967429e-36</v>
+        <v>4.911549901347888e-40</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>1.841779210798764e-36</v>
+        <v>5.655571545316248e-40</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.39723614631416e-36</v>
+        <v>4.775941287278886e-40</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>8.249412441561687e-37</v>
+        <v>4.480378013186389e-40</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>8.675699746633161e-37</v>
+        <v>2.802252143058094e-40</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>1.581352504295468e-36</v>
+        <v>2.7639010281616e-40</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>7.682029648512052e-37</v>
+        <v>2.196436055654146e-40</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>2.917757648906301e-37</v>
+        <v>2.634866475686708e-40</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>2.14726261611222e-37</v>
+        <v>3.891433399371678e-40</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>1.415943747381773e-37</v>
+        <v>3.830172394335888e-40</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>1.310085118534946e-37</v>
+        <v>3.451606015482467e-40</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.707623969855302e-37</v>
+        <v>2.84143831134393e-40</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>3.637257048729897e-37</v>
+        <v>2.735521915891387e-40</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>3.84919171502608e-37</v>
+        <v>2.409095392144615e-40</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>3.744845559621708e-37</v>
+        <v>1.103904490537964e-40</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>3.580471835843086e-37</v>
+        <v>1.000368101031464e-40</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>2.934846757080017e-37</v>
+        <v>1.030993027590824e-40</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>2.187618192540805e-37</v>
+        <v>1.229608052639262e-40</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>1.401504289589383e-37</v>
+        <v>1.398424384585194e-40</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>1.085344156893702e-37</v>
+        <v>2.443342511418457e-40</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>9.860062985278646e-38</v>
+        <v>3.429100545061783e-40</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>9.45758558456268e-38</v>
+        <v>8.550163128316208e-40</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>8.502442458790108e-38</v>
+        <v>1.255184571688288e-39</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>7.301655617053661e-38</v>
+        <v>1.146403408040835e-39</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>6.140334969664494e-38</v>
+        <v>7.933740161219626e-40</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>6.307750891089929e-38</v>
+        <v>3.523603109759933e-40</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>7.029072614085842e-38</v>
+        <v>2.594770682843543e-40</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>9.130455065725802e-38</v>
+        <v>3.17343427199842e-40</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>1.020258560620854e-37</v>
+        <v>1.345464226804447e-40</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>1.157003514883178e-37</v>
+        <v>9.233558611136899e-41</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.302256082510351e-37</v>
+        <v>4.857178365500363e-41</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>1.318114592844709e-37</v>
+        <v>2.098233770194276e-41</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>1.46842160568498e-37</v>
+        <v>1.550793745204164e-41</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.536334111925093e-37</v>
+        <v>1.481658796834684e-41</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.466109003484168e-37</v>
+        <v>1.612279643096482e-41</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.479698151136235e-37</v>
+        <v>1.864179238908633e-41</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.391074766852972e-37</v>
+        <v>1.664783108133629e-41</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>1.317768268011149e-37</v>
+        <v>3.193162232819795e-41</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.231287212581447e-37</v>
+        <v>4.407009854854434e-41</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.191232783859923e-37</v>
+        <v>8.920943216085547e-41</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>1.081277833780694e-37</v>
+        <v>1.849439336640813e-40</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.022212672269408e-37</v>
+        <v>1.509410994288276e-40</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>7.132383595580779e-38</v>
+        <v>6.811411669190777e-41</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>6.061011525975777e-38</v>
+        <v>2.939678529020759e-41</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>4.727137230841163e-38</v>
+        <v>1.216620247860442e-41</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>3.123889257318359e-38</v>
+        <v>1.046215356733444e-41</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>2.615368377572468e-38</v>
+        <v>6.059301224826622e-42</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>2.077173336278583e-38</v>
+        <v>4.4749799458234e-42</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>1.88650794624015e-38</v>
+        <v>2.604126033096454e-42</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.887566776162484e-38</v>
+        <v>2.702649493632154e-42</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>1.809244341243098e-38</v>
+        <v>4.791835034887674e-42</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>1.619422231825855e-38</v>
+        <v>2.20157185631579e-42</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.552510132684943e-38</v>
+        <v>8.133135752712117e-43</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>1.512803428619417e-38</v>
+        <v>5.825674138277587e-43</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.618361200080949e-38</v>
+        <v>3.633915528697078e-43</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>1.676867350176577e-38</v>
+        <v>3.1814732501486e-43</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>1.684286607978504e-38</v>
+        <v>3.923710129492385e-43</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>1.610424739601471e-38</v>
+        <v>8.238657116422799e-43</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>1.50853309249693e-38</v>
+        <v>8.629934908406405e-43</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>1.317194768456776e-38</v>
+        <v>8.140788047336794e-43</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.043808378838638e-38</v>
+        <v>7.676986900522016e-43</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>5.546977996857384e-39</v>
+        <v>6.203513792351556e-43</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>4.309925842539323e-39</v>
+        <v>4.498667306626204e-43</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>3.196176361220195e-39</v>
+        <v>2.805013642761279e-43</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>2.107025094650241e-39</v>
+        <v>2.112340091696621e-43</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.803010962002347e-39</v>
+        <v>1.907732564643286e-43</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.669016189503551e-39</v>
+        <v>1.814188200959833e-43</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>1.621175547976848e-39</v>
+        <v>1.609503739759248e-43</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>1.49045952432879e-39</v>
+        <v>1.345122367168291e-43</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.455877124340302e-39</v>
+        <v>1.069892774328801e-43</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>1.45253459883356e-39</v>
+        <v>1.050730018656839e-43</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>1.440699402630055e-39</v>
+        <v>1.096897914644302e-43</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>1.369859691407324e-39</v>
+        <v>1.385876516512383e-43</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.302251462503001e-39</v>
+        <v>1.505449009014509e-43</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>1.261324561211191e-39</v>
+        <v>1.661432268408581e-43</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.097841347436743e-39</v>
+        <v>1.838268315573707e-43</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.094037218780441e-39</v>
+        <v>1.83997875811275e-43</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.087991088486321e-39</v>
+        <v>2.011992238241919e-43</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>1.031305339797211e-39</v>
+        <v>2.048582076820061e-43</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>8.394799191370036e-40</v>
+        <v>1.936001619681452e-43</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>6.726083710813551e-40</v>
+        <v>1.919184686719315e-43</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>5.917544500913975e-40</v>
+        <v>1.778918110906205e-43</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>5.639119668977329e-40</v>
+        <v>1.671802846609703e-43</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>6.560599471054573e-40</v>
+        <v>1.548665509143452e-43</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.047606879714889e-39</v>
+        <v>1.489320887249182e-43</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.230741573655199e-39</v>
+        <v>1.341570867804899e-43</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>1.244497928452235e-39</v>
+        <v>1.261883830272781e-43</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>1.206502827853133e-39</v>
+        <v>8.562580476147192e-44</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>1.189149621618948e-39</v>
+        <v>7.169297918721209e-44</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>1.178718750637245e-39</v>
+        <v>5.520827626086812e-44</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>1.032580714294654e-39</v>
+        <v>3.549160165343861e-44</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>9.121561359701154e-40</v>
+        <v>2.92776620442986e-44</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>4.812396119319961e-40</v>
+        <v>2.294301148170654e-44</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>2.269700323911915e-40</v>
+        <v>2.067058792438539e-44</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>1.486829311853418e-40</v>
+        <v>2.0675326207103e-44</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.240079409985706e-40</v>
+        <v>1.971028518558196e-44</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>1.492019707907898e-40</v>
+        <v>1.740098304965091e-44</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>1.572402371132686e-40</v>
+        <v>1.65427794874919e-44</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>2.128886141410684e-40</v>
+        <v>1.601879351754002e-44</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>2.416394881883229e-40</v>
+        <v>1.700996942693964e-44</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>2.316151828714415e-40</v>
+        <v>1.747346466669217e-44</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>2.057394512479375e-40</v>
+        <v>1.741489772784141e-44</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>1.713517790001013e-40</v>
+        <v>1.650127218112572e-44</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>1.695223912112148e-40</v>
+        <v>1.533756623919793e-44</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.405139482130684e-40</v>
+        <v>1.32016850510854e-44</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>1.100862543241109e-40</v>
+        <v>1.032167745399513e-44</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>9.262991039157089e-41</v>
+        <v>5.334894742116299e-45</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>8.709084925317732e-41</v>
+        <v>4.087870706469122e-45</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>7.991066676622026e-41</v>
+        <v>2.993426398617738e-45</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>7.649489146982209e-41</v>
+        <v>1.921072972228195e-45</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>6.87540641214251e-41</v>
+        <v>1.617728121757651e-45</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>7.027602910388841e-41</v>
+        <v>1.482133162532445e-45</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>7.520997313092856e-41</v>
+        <v>1.427595132190083e-45</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>7.920385266499162e-41</v>
+        <v>1.304778028311314e-45</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>8.24299941932057e-41</v>
+        <v>1.270632166611189e-45</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>8.836335514193725e-41</v>
+        <v>1.266173090157573e-45</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>9.179541041013809e-41</v>
+        <v>1.254884145040328e-45</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>8.748857937177479e-41</v>
+        <v>1.186041072889689e-45</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>8.204891394186676e-41</v>
+        <v>1.121347221851747e-45</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>6.774672438730249e-41</v>
+        <v>1.079994771842474e-45</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>6.634977034925825e-41</v>
+        <v>9.351388919291367e-46</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>5.519904592833271e-41</v>
+        <v>9.286565265161953e-46</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>5.181403324503921e-41</v>
+        <v>9.217125512419122e-46</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>5.023449441283434e-41</v>
+        <v>8.662549073370455e-46</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>6.052421957691896e-41</v>
+        <v>6.955218521813701e-46</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>5.161455576823309e-41</v>
+        <v>5.496582480663853e-46</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>5.099303274382044e-41</v>
+        <v>4.77272369359095e-46</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>4.483143173515805e-41</v>
+        <v>4.530335449226161e-46</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>4.069567230873631e-41</v>
+        <v>5.214514902677454e-46</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>3.744252092256971e-41</v>
+        <v>8.210670492807619e-46</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>3.400477593718689e-41</v>
+        <v>9.572377480863248e-46</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.045231011742387e-41</v>
+        <v>9.596997941006028e-46</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>3.006545527840897e-41</v>
+        <v>9.220737388336743e-46</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>1.423398094188715e-41</v>
+        <v>9.03748060103445e-46</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>5.409464894157703e-42</v>
+        <v>8.934204723699071e-46</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>3.204056817143283e-42</v>
+        <v>7.696449393211021e-46</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>4.491432762320942e-42</v>
+        <v>6.755177828761754e-46</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>2.770025167672833e-42</v>
+        <v>3.460191273715572e-46</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>2.177106126335227e-42</v>
+        <v>1.54502468274224e-46</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>1.749715013745383e-42</v>
+        <v>9.571405118678571e-47</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>1.714849476265331e-42</v>
+        <v>7.553356652136959e-47</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>2.033144463078368e-42</v>
+        <v>8.852983369625198e-47</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>3.201878620280567e-42</v>
+        <v>9.238521861590483e-47</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>3.029260985027289e-42</v>
+        <v>1.226588023964986e-46</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>2.221556220799411e-42</v>
+        <v>1.354972174327525e-46</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.86241363706438e-42</v>
+        <v>1.280570083309472e-46</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.122070006952647e-46</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9.217411917134528e-47</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9.117491684061992e-47</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7.457855659320878e-47</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.760410601227776e-47</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.777638816146524e-47</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.457539986356119e-47</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.036879439098994e-47</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.842474452724776e-47</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.428322957232654e-47</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.447970329353338e-47</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.642890680591915e-47</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.787419611948463e-47</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.884436390953311e-47</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.108327690585988e-47</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.206952260714002e-47</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.009238981888881e-47</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.712837349392708e-47</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.02128045680334e-47</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.957426330004224e-47</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.433264121713348e-47</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.275723481556659e-47</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.204396645602071e-47</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.630563104594963e-47</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.233725763289628e-47</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.180737150067831e-47</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.907026659439491e-47</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.721265650362521e-47</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.575064643781023e-47</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.421813329558188e-47</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.266288057086663e-47</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.244646758884918e-47</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.809229108642722e-48</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.175665173490508e-48</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.278611344390112e-48</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.790270853959161e-48</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.102536376751208e-48</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>8.615218229841882e-49</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>6.849664562235337e-49</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6.653652456167384e-49</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>7.666442862344683e-49</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.17223228357328e-48</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.077946292383648e-48</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>7.667334857220334e-49</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>6.359729266543074e-49</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>1.3770216765436e-38</v>
+        <v>1.679690209968745e-35</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>3.494798747405194e-38</v>
+        <v>1.609169289070035e-35</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>5.075489758988828e-38</v>
+        <v>1.752175379591965e-35</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>4.945156969383436e-38</v>
+        <v>2.149576183445469e-35</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>4.951483244023339e-38</v>
+        <v>2.512841544225086e-35</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>5.150691751947615e-38</v>
+        <v>4.511846777922087e-35</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>4.279356568095608e-38</v>
+        <v>6.507918938470963e-35</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>4.385431144666926e-38</v>
+        <v>1.645517096024522e-34</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>3.21297183768731e-38</v>
+        <v>2.450178752038122e-34</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>3.70407273310761e-38</v>
+        <v>2.299574569945274e-34</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>2.645672571299841e-38</v>
+        <v>1.627127785710401e-34</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>2.160573863383004e-38</v>
+        <v>7.391294208811477e-35</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>4.873787237127434e-40</v>
+        <v>5.47402742110875e-35</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>2.647827407912039e-40</v>
+        <v>6.729700833739637e-35</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>2.656848705768591e-40</v>
+        <v>2.870258392202155e-35</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>2.221179984224601e-40</v>
+        <v>1.984930416690523e-35</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>2.235381498348227e-40</v>
+        <v>1.05862519708951e-35</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>2.827687982354016e-40</v>
+        <v>4.704488172579082e-36</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>2.282771389953642e-40</v>
+        <v>3.496060358360763e-36</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>2.606124967086967e-40</v>
+        <v>3.36710436730157e-36</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>4.881077598793794e-40</v>
+        <v>3.714862597466744e-36</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>5.369324573048369e-40</v>
+        <v>4.35712759968688e-36</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>6.882063536319769e-40</v>
+        <v>3.936219375741199e-36</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>7.263554140467376e-40</v>
+        <v>7.668835523654385e-36</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>6.135844348907836e-40</v>
+        <v>1.073679596595156e-35</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>7.20172446287702e-40</v>
+        <v>2.231644270380987e-35</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>6.337425323736875e-40</v>
+        <v>4.761269738691379e-35</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>6.522263254188816e-40</v>
+        <v>3.994313874713366e-35</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>6.261685540710583e-40</v>
+        <v>1.852523530898606e-35</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>6.034567667818068e-40</v>
+        <v>8.220505974695841e-36</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>5.50477366683e-40</v>
+        <v>3.499403504801298e-36</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>4.911549901347888e-40</v>
+        <v>3.091261750967429e-36</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>5.655571545316248e-40</v>
+        <v>1.841779210798764e-36</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>4.775941287278886e-40</v>
+        <v>1.39723614631416e-36</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>4.480378013186389e-40</v>
+        <v>8.249412441561687e-37</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>2.802252143058094e-40</v>
+        <v>8.675699746633161e-37</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>2.7639010281616e-40</v>
+        <v>1.581352504295468e-36</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>2.196436055654146e-40</v>
+        <v>7.682029648512052e-37</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>2.634866475686708e-40</v>
+        <v>2.917757648906301e-37</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>3.891433399371678e-40</v>
+        <v>2.14726261611222e-37</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>3.830172394335888e-40</v>
+        <v>1.415943747381773e-37</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>3.451606015482467e-40</v>
+        <v>1.310085118534946e-37</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>2.84143831134393e-40</v>
+        <v>1.707623969855302e-37</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>2.735521915891387e-40</v>
+        <v>3.637257048729897e-37</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>2.409095392144615e-40</v>
+        <v>3.84919171502608e-37</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>1.103904490537964e-40</v>
+        <v>3.744845559621708e-37</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.000368101031464e-40</v>
+        <v>3.580471835843086e-37</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>1.030993027590824e-40</v>
+        <v>2.934846757080017e-37</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>1.229608052639262e-40</v>
+        <v>2.187618192540805e-37</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>1.398424384585194e-40</v>
+        <v>1.401504289589383e-37</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>2.443342511418457e-40</v>
+        <v>1.085344156893702e-37</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>3.429100545061783e-40</v>
+        <v>9.860062985278646e-38</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>8.550163128316208e-40</v>
+        <v>9.45758558456268e-38</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>1.255184571688288e-39</v>
+        <v>8.502442458790108e-38</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>1.146403408040835e-39</v>
+        <v>7.301655617053661e-38</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>7.933740161219626e-40</v>
+        <v>6.140334969664494e-38</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>3.523603109759933e-40</v>
+        <v>6.307750891089929e-38</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>2.594770682843543e-40</v>
+        <v>7.029072614085842e-38</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>3.17343427199842e-40</v>
+        <v>9.130455065725802e-38</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>1.345464226804447e-40</v>
+        <v>1.020258560620854e-37</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>9.233558611136899e-41</v>
+        <v>1.157003514883178e-37</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>4.857178365500363e-41</v>
+        <v>1.302256082510351e-37</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>2.098233770194276e-41</v>
+        <v>1.318114592844709e-37</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>1.550793745204164e-41</v>
+        <v>1.46842160568498e-37</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>1.481658796834684e-41</v>
+        <v>1.536334111925093e-37</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>1.612279643096482e-41</v>
+        <v>1.466109003484168e-37</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.864179238908633e-41</v>
+        <v>1.479698151136235e-37</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.664783108133629e-41</v>
+        <v>1.391074766852972e-37</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>3.193162232819795e-41</v>
+        <v>1.317768268011149e-37</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>4.407009854854434e-41</v>
+        <v>1.231287212581447e-37</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>8.920943216085547e-41</v>
+        <v>1.191232783859923e-37</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>1.849439336640813e-40</v>
+        <v>1.081277833780694e-37</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>1.509410994288276e-40</v>
+        <v>1.022212672269408e-37</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>6.811411669190777e-41</v>
+        <v>7.132383595580779e-38</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>2.939678529020759e-41</v>
+        <v>6.061011525975777e-38</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>1.216620247860442e-41</v>
+        <v>4.727137230841163e-38</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>1.046215356733444e-41</v>
+        <v>3.123889257318359e-38</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>6.059301224826622e-42</v>
+        <v>2.615368377572468e-38</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>4.4749799458234e-42</v>
+        <v>2.077173336278583e-38</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>2.604126033096454e-42</v>
+        <v>1.88650794624015e-38</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>2.702649493632154e-42</v>
+        <v>1.887566776162484e-38</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>4.791835034887674e-42</v>
+        <v>1.809244341243098e-38</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>2.20157185631579e-42</v>
+        <v>1.619422231825855e-38</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>8.133135752712117e-43</v>
+        <v>1.552510132684943e-38</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>5.825674138277587e-43</v>
+        <v>1.512803428619417e-38</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>3.633915528697078e-43</v>
+        <v>1.618361200080949e-38</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>3.1814732501486e-43</v>
+        <v>1.676867350176577e-38</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.923710129492385e-43</v>
+        <v>1.684286607978504e-38</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>8.238657116422799e-43</v>
+        <v>1.610424739601471e-38</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.629934908406405e-43</v>
+        <v>1.50853309249693e-38</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>8.140788047336794e-43</v>
+        <v>1.317194768456776e-38</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>7.676986900522016e-43</v>
+        <v>1.043808378838638e-38</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>6.203513792351556e-43</v>
+        <v>5.546977996857384e-39</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>4.498667306626204e-43</v>
+        <v>4.309925842539323e-39</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>2.805013642761279e-43</v>
+        <v>3.196176361220195e-39</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>2.112340091696621e-43</v>
+        <v>2.107025094650241e-39</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>1.907732564643286e-43</v>
+        <v>1.803010962002347e-39</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>1.814188200959833e-43</v>
+        <v>1.669016189503551e-39</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>1.609503739759248e-43</v>
+        <v>1.621175547976848e-39</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>1.345122367168291e-43</v>
+        <v>1.49045952432879e-39</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>1.069892774328801e-43</v>
+        <v>1.455877124340302e-39</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>1.050730018656839e-43</v>
+        <v>1.45253459883356e-39</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>1.096897914644302e-43</v>
+        <v>1.440699402630055e-39</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>1.385876516512383e-43</v>
+        <v>1.369859691407324e-39</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>1.505449009014509e-43</v>
+        <v>1.302251462503001e-39</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>1.661432268408581e-43</v>
+        <v>1.261324561211191e-39</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>1.838268315573707e-43</v>
+        <v>1.097841347436743e-39</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>1.83997875811275e-43</v>
+        <v>1.094037218780441e-39</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>2.011992238241919e-43</v>
+        <v>1.087991088486321e-39</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>2.048582076820061e-43</v>
+        <v>1.031305339797211e-39</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>1.936001619681452e-43</v>
+        <v>8.394799191370036e-40</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>1.919184686719315e-43</v>
+        <v>6.726083710813551e-40</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>1.778918110906205e-43</v>
+        <v>5.917544500913975e-40</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>1.671802846609703e-43</v>
+        <v>5.639119668977329e-40</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>1.548665509143452e-43</v>
+        <v>6.560599471054573e-40</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>1.489320887249182e-43</v>
+        <v>1.047606879714889e-39</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>1.341570867804899e-43</v>
+        <v>1.230741573655199e-39</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>1.261883830272781e-43</v>
+        <v>1.244497928452235e-39</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>8.562580476147192e-44</v>
+        <v>1.206502827853133e-39</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>7.169297918721209e-44</v>
+        <v>1.189149621618948e-39</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>5.520827626086812e-44</v>
+        <v>1.178718750637245e-39</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>3.549160165343861e-44</v>
+        <v>1.032580714294654e-39</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>2.92776620442986e-44</v>
+        <v>9.121561359701154e-40</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>2.294301148170654e-44</v>
+        <v>4.812396119319961e-40</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>2.067058792438539e-44</v>
+        <v>2.269700323911915e-40</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>2.0675326207103e-44</v>
+        <v>1.486829311853418e-40</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>1.971028518558196e-44</v>
+        <v>1.240079409985706e-40</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.740098304965091e-44</v>
+        <v>1.492019707907898e-40</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.65427794874919e-44</v>
+        <v>1.572402371132686e-40</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.601879351754002e-44</v>
+        <v>2.128886141410684e-40</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.700996942693964e-44</v>
+        <v>2.416394881883229e-40</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>1.747346466669217e-44</v>
+        <v>2.316151828714415e-40</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>1.741489772784141e-44</v>
+        <v>2.057394512479375e-40</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>1.650127218112572e-44</v>
+        <v>1.713517790001013e-40</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>1.533756623919793e-44</v>
+        <v>1.695223912112148e-40</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.32016850510854e-44</v>
+        <v>1.405139482130684e-40</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>1.032167745399513e-44</v>
+        <v>1.100862543241109e-40</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>5.334894742116299e-45</v>
+        <v>9.262991039157089e-41</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>4.087870706469122e-45</v>
+        <v>8.709084925317732e-41</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>2.993426398617738e-45</v>
+        <v>7.991066676622026e-41</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>1.921072972228195e-45</v>
+        <v>7.649489146982209e-41</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>1.617728121757651e-45</v>
+        <v>6.87540641214251e-41</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>1.482133162532445e-45</v>
+        <v>7.027602910388841e-41</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>1.427595132190083e-45</v>
+        <v>7.520997313092856e-41</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>1.304778028311314e-45</v>
+        <v>7.920385266499162e-41</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>1.270632166611189e-45</v>
+        <v>8.24299941932057e-41</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>1.266173090157573e-45</v>
+        <v>8.836335514193725e-41</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>1.254884145040328e-45</v>
+        <v>9.179541041013809e-41</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>1.186041072889689e-45</v>
+        <v>8.748857937177479e-41</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>1.121347221851747e-45</v>
+        <v>8.204891394186676e-41</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>1.079994771842474e-45</v>
+        <v>6.774672438730249e-41</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>9.351388919291367e-46</v>
+        <v>6.634977034925825e-41</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>9.286565265161953e-46</v>
+        <v>5.519904592833271e-41</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>9.217125512419122e-46</v>
+        <v>5.181403324503921e-41</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>8.662549073370455e-46</v>
+        <v>5.023449441283434e-41</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>6.955218521813701e-46</v>
+        <v>6.052421957691896e-41</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>5.496582480663853e-46</v>
+        <v>5.161455576823309e-41</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>4.77272369359095e-46</v>
+        <v>5.099303274382044e-41</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>4.530335449226161e-46</v>
+        <v>4.483143173515805e-41</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>5.214514902677454e-46</v>
+        <v>4.069567230873631e-41</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>8.210670492807619e-46</v>
+        <v>3.744252092256971e-41</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>9.572377480863248e-46</v>
+        <v>3.400477593718689e-41</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>9.596997941006028e-46</v>
+        <v>3.045231011742387e-41</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>9.220737388336743e-46</v>
+        <v>3.006545527840897e-41</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>9.03748060103445e-46</v>
+        <v>1.423398094188715e-41</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>8.934204723699071e-46</v>
+        <v>5.409464894157703e-42</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>7.696449393211021e-46</v>
+        <v>3.204056817143283e-42</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>6.755177828761754e-46</v>
+        <v>4.491432762320942e-42</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>3.460191273715572e-46</v>
+        <v>2.770025167672833e-42</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>1.54502468274224e-46</v>
+        <v>2.177106126335227e-42</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>9.571405118678571e-47</v>
+        <v>1.749715013745383e-42</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>7.553356652136959e-47</v>
+        <v>1.714849476265331e-42</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>8.852983369625198e-47</v>
+        <v>2.033144463078368e-42</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>9.238521861590483e-47</v>
+        <v>3.201878620280567e-42</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>1.226588023964986e-46</v>
+        <v>3.029260985027289e-42</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>1.354972174327525e-46</v>
+        <v>2.221556220799411e-42</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>1.280570083309472e-46</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.122070006952647e-46</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9.217411917134528e-47</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>9.117491684061992e-47</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>7.457855659320878e-47</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.760410601227776e-47</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.777638816146524e-47</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.457539986356119e-47</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.036879439098994e-47</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.842474452724776e-47</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.428322957232654e-47</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.447970329353338e-47</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.642890680591915e-47</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.787419611948463e-47</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.884436390953311e-47</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.108327690585988e-47</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.206952260714002e-47</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.009238981888881e-47</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.712837349392708e-47</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.02128045680334e-47</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.957426330004224e-47</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.433264121713348e-47</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.275723481556659e-47</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.204396645602071e-47</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.630563104594963e-47</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.233725763289628e-47</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.180737150067831e-47</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.907026659439491e-47</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.721265650362521e-47</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.575064643781023e-47</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.421813329558188e-47</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.266288057086663e-47</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.244646758884918e-47</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.809229108642722e-48</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.175665173490508e-48</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.278611344390112e-48</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.790270853959161e-48</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.102536376751208e-48</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>8.615218229841882e-49</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>6.849664562235337e-49</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>6.653652456167384e-49</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>7.666442862344683e-49</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.17223228357328e-48</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.077946292383648e-48</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>7.667334857220334e-49</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>6.359729266543074e-49</v>
+        <v>1.86241363706438e-42</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>1.679690209968745e-35</v>
+        <v>2.15529361804092e-20</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.609169289070035e-35</v>
+        <v>3.406717177763845e-20</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.752175379591965e-35</v>
+        <v>4.612212489500143e-20</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>2.149576183445469e-35</v>
+        <v>4.292822935668646e-20</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>2.512841544225086e-35</v>
+        <v>5.0873613516781e-20</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>4.511846777922087e-35</v>
+        <v>4.775705342976349e-20</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>6.507918938470963e-35</v>
+        <v>4.222845036265785e-20</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.645517096024522e-34</v>
+        <v>4.287768343464793e-20</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>2.450178752038122e-34</v>
+        <v>2.998244755021713e-20</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>2.299574569945274e-34</v>
+        <v>3.466687688647889e-20</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.627127785710401e-34</v>
+        <v>3.539501788055543e-20</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>7.391294208811477e-35</v>
+        <v>2.075419890142768e-20</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>5.47402742110875e-35</v>
+        <v>4.482346363243989e-22</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>6.729700833739637e-35</v>
+        <v>2.411127029633526e-22</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.870258392202155e-35</v>
+        <v>2.551157183397256e-22</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>1.984930416690523e-35</v>
+        <v>2.082111949363131e-22</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>1.05862519708951e-35</v>
+        <v>2.116796447046544e-22</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>4.704488172579082e-36</v>
+        <v>2.636212999414517e-22</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>3.496060358360763e-36</v>
+        <v>2.139259897044696e-22</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3.36710436730157e-36</v>
+        <v>2.502841805088432e-22</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>3.714862597466744e-36</v>
+        <v>4.436261855989424e-22</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>4.35712759968688e-36</v>
+        <v>5.082503771825451e-22</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>3.936219375741199e-36</v>
+        <v>6.853319992316766e-22</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>7.668835523654385e-36</v>
+        <v>7.007445345844322e-22</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>1.073679596595156e-35</v>
+        <v>6.3593940907834e-22</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>2.231644270380987e-35</v>
+        <v>6.752610276749081e-22</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>4.761269738691379e-35</v>
+        <v>6.367560532273878e-22</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>3.994313874713366e-35</v>
+        <v>6.233868279404184e-22</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>1.852523530898606e-35</v>
+        <v>5.992050471879383e-22</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>8.220505974695841e-36</v>
+        <v>5.874635173836746e-22</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>3.499403504801298e-36</v>
+        <v>5.310013260723813e-22</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>3.091261750967429e-36</v>
+        <v>4.825986325908362e-22</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>1.841779210798764e-36</v>
+        <v>5.268452205861338e-22</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.39723614631416e-36</v>
+        <v>4.522456027753876e-22</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>8.249412441561687e-37</v>
+        <v>4.187671337794847e-22</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>8.675699746633161e-37</v>
+        <v>2.712127856327771e-22</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.581352504295468e-36</v>
+        <v>2.603344687648393e-22</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>7.682029648512052e-37</v>
+        <v>2.373060061969919e-22</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>2.917757648906301e-37</v>
+        <v>2.491046968742088e-22</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>2.14726261611222e-37</v>
+        <v>3.646088489949593e-22</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>1.415943747381773e-37</v>
+        <v>3.617082766497756e-22</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.310085118534946e-37</v>
+        <v>3.210878545066105e-22</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.707623969855302e-37</v>
+        <v>2.655263908834288e-22</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>3.637257048729897e-37</v>
+        <v>2.542024373876712e-22</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>3.84919171502608e-37</v>
+        <v>2.25308540425071e-22</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>3.744845559621708e-37</v>
+        <v>1.023576271640764e-22</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>3.580471835843086e-37</v>
+        <v>9.351361849907066e-23</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>2.934846757080017e-37</v>
+        <v>9.591222741980795e-23</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>2.187618192540805e-37</v>
+        <v>1.15120556581522e-22</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>1.401504289589383e-37</v>
+        <v>1.307041749696842e-22</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>1.085344156893702e-37</v>
+        <v>2.274352976720364e-22</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>9.860062985278646e-38</v>
+        <v>3.191967682360327e-22</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>9.45758558456268e-38</v>
+        <v>7.98428646127353e-22</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>8.502442458790108e-38</v>
+        <v>1.170975289280628e-21</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>7.301655617053661e-38</v>
+        <v>1.067984758236994e-21</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>6.140334969664494e-38</v>
+        <v>7.394508448902711e-22</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>6.307750891089929e-38</v>
+        <v>3.291441805154739e-22</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>7.029072614085842e-38</v>
+        <v>2.425931305906288e-22</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>9.130455065725802e-38</v>
+        <v>2.960920384246638e-22</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>1.020258560620854e-37</v>
+        <v>1.25383345102726e-22</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>1.157003514883178e-37</v>
+        <v>8.582991572425357e-23</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.302256082510351e-37</v>
+        <v>4.505735247306515e-23</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>1.318114592844709e-37</v>
+        <v>1.95776244267085e-23</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>1.46842160568498e-37</v>
+        <v>1.449188637062174e-23</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.536334111925093e-37</v>
+        <v>1.395202932139929e-23</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.466109003484168e-37</v>
+        <v>1.501502113438122e-23</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.479698151136235e-37</v>
+        <v>1.77870898665363e-23</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.391074766852972e-37</v>
+        <v>1.593464670990201e-23</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>1.317768268011149e-37</v>
+        <v>2.915153860861347e-23</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.231287212581447e-37</v>
+        <v>4.166070232078834e-23</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.191232783859923e-37</v>
+        <v>8.32576740164197e-23</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>1.081277833780694e-37</v>
+        <v>1.725514408779641e-22</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>1.022212672269408e-37</v>
+        <v>1.409104617958649e-22</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>7.132383595580779e-38</v>
+        <v>6.352144118297852e-23</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>6.061011525975777e-38</v>
+        <v>2.755982011884947e-23</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>4.727137230841163e-38</v>
+        <v>1.134749057675754e-23</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>3.123889257318359e-38</v>
+        <v>9.795088776864864e-24</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>2.615368377572468e-38</v>
+        <v>5.766655992628563e-24</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>2.077173336278583e-38</v>
+        <v>4.172411568245329e-24</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>1.88650794624015e-38</v>
+        <v>2.423393437447407e-24</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.887566776162484e-38</v>
+        <v>2.517905205626438e-24</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>1.809244341243098e-38</v>
+        <v>4.461022802127618e-24</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.619422231825855e-38</v>
+        <v>2.048880249579836e-24</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.552510132684943e-38</v>
+        <v>7.557726096106739e-25</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>1.512803428619417e-38</v>
+        <v>5.425685091346778e-25</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.618361200080949e-38</v>
+        <v>3.390757537901894e-25</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>1.676867350176577e-38</v>
+        <v>2.943544947632374e-25</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.684286607978504e-38</v>
+        <v>3.658713985555305e-25</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>1.610424739601471e-38</v>
+        <v>7.669663809275344e-25</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>1.50853309249693e-38</v>
+        <v>8.026094319055754e-25</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>1.317194768456776e-38</v>
+        <v>7.603861757269991e-25</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.043808378838638e-38</v>
+        <v>7.141762943736641e-25</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>5.546977996857384e-39</v>
+        <v>5.758588493377212e-25</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>4.309925842539323e-39</v>
+        <v>4.197731745961651e-25</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>3.196176361220195e-39</v>
+        <v>2.612577309838785e-25</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>2.107025094650241e-39</v>
+        <v>1.9725342575315e-25</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.803010962002347e-39</v>
+        <v>1.78253663383188e-25</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.669016189503551e-39</v>
+        <v>1.678568345325995e-25</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>1.621175547976848e-39</v>
+        <v>1.503750150506958e-25</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>1.49045952432879e-39</v>
+        <v>1.252358285856324e-25</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.455877124340302e-39</v>
+        <v>9.969575242446865e-26</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>1.45253459883356e-39</v>
+        <v>9.806209113211718e-26</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>1.440699402630055e-39</v>
+        <v>1.022248422172681e-25</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>1.369859691407324e-39</v>
+        <v>1.290629459452619e-25</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.302251462503001e-39</v>
+        <v>1.403399935901271e-25</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>1.261324561211191e-39</v>
+        <v>1.546908156841373e-25</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.097841347436743e-39</v>
+        <v>1.713232706488942e-25</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.094037218780441e-39</v>
+        <v>1.714221283192501e-25</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>1.087991088486321e-39</v>
+        <v>1.876931856703818e-25</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>1.031305339797211e-39</v>
+        <v>1.909274733848299e-25</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>8.394799191370036e-40</v>
+        <v>1.804077297412628e-25</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>6.726083710813551e-40</v>
+        <v>1.787128447582068e-25</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>5.917544500913975e-40</v>
+        <v>1.657085258841481e-25</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>5.639119668977329e-40</v>
+        <v>1.557730080631723e-25</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>6.560599471054573e-40</v>
+        <v>1.443300758929814e-25</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.047606879714889e-39</v>
+        <v>1.385704339337767e-25</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.230741573655199e-39</v>
+        <v>1.249634792940163e-25</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>1.244497928452235e-39</v>
+        <v>1.175811925672525e-25</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>1.206502827853133e-39</v>
+        <v>7.977114145938602e-26</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>1.189149621618948e-39</v>
+        <v>6.675762023379495e-26</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>1.178718750637245e-39</v>
+        <v>5.149434702422994e-26</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>1.032580714294654e-39</v>
+        <v>3.306138099886838e-26</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>9.121561359701154e-40</v>
+        <v>2.726884735784534e-26</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>4.812396119319961e-40</v>
+        <v>2.140273127669436e-26</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>2.269700323911915e-40</v>
+        <v>1.926305366238068e-26</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>1.486829311853418e-40</v>
+        <v>1.927970808685597e-26</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>1.240079409985706e-40</v>
+        <v>1.840706433720124e-26</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>1.492019707907898e-40</v>
+        <v>1.621764715569808e-26</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>1.572402371132686e-40</v>
+        <v>1.544189318805414e-26</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>2.128886141410684e-40</v>
+        <v>1.491336756446802e-26</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>2.416394881883229e-40</v>
+        <v>1.585177741072195e-26</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>2.316151828714415e-40</v>
+        <v>1.626971368648536e-26</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>2.057394512479375e-40</v>
+        <v>1.621520726518251e-26</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>1.713517790001013e-40</v>
+        <v>1.539302241520943e-26</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>1.695223912112148e-40</v>
+        <v>1.427694900209408e-26</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>1.405139482130684e-40</v>
+        <v>1.229379141549969e-26</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>1.100862543241109e-40</v>
+        <v>9.622565818721732e-27</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>9.262991039157089e-41</v>
+        <v>4.968044159624625e-27</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>8.709084925317732e-41</v>
+        <v>3.797334754100377e-27</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>7.991066676622026e-41</v>
+        <v>2.79305771857201e-27</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>7.649489146982209e-41</v>
+        <v>1.792979375663176e-27</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>6.87540641214251e-41</v>
+        <v>1.504600170425488e-27</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>7.027602910388841e-41</v>
+        <v>1.373579644288153e-27</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>7.520997313092856e-41</v>
+        <v>1.328824375318281e-27</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>7.920385266499162e-41</v>
+        <v>1.215797816768795e-27</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>8.24299941932057e-41</v>
+        <v>1.189976429660025e-27</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>8.836335514193725e-41</v>
+        <v>1.181763668918951e-27</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>9.179541041013809e-41</v>
+        <v>1.170301101225885e-27</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>8.748857937177479e-41</v>
+        <v>1.104267054129849e-27</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>8.204891394186676e-41</v>
+        <v>1.040069854317684e-27</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>6.774672438730249e-41</v>
+        <v>1.00202975954267e-27</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>6.634977034925825e-41</v>
+        <v>8.752561230823761e-28</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>5.519904592833271e-41</v>
+        <v>8.64493052381191e-28</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>5.181403324503921e-41</v>
+        <v>8.610477826617396e-28</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>5.023449441283434e-41</v>
+        <v>8.070265306328172e-28</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>6.052421957691896e-41</v>
+        <v>6.485692826169466e-28</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>5.161455576823309e-41</v>
+        <v>5.154260711829413e-28</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>5.099303274382044e-41</v>
+        <v>4.441016894411051e-28</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>4.483143173515805e-41</v>
+        <v>4.215915500777858e-28</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>4.069567230873631e-41</v>
+        <v>4.847010602978826e-28</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>3.744252092256971e-41</v>
+        <v>7.697392117745253e-28</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>3.400477593718689e-41</v>
+        <v>8.897852533913165e-28</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.045231011742387e-41</v>
+        <v>8.937026280744621e-28</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>3.006545527840897e-41</v>
+        <v>8.569729626120846e-28</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>1.423398094188715e-41</v>
+        <v>8.407426727219499e-28</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>5.409464894157703e-42</v>
+        <v>8.322956620585215e-28</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>3.204056817143283e-42</v>
+        <v>7.161053597746616e-28</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>4.491432762320942e-42</v>
+        <v>6.302892794402068e-28</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>2.770025167672833e-42</v>
+        <v>3.223371006218217e-28</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>2.177106126335227e-42</v>
+        <v>1.438108933036692e-28</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>1.749715013745383e-42</v>
+        <v>8.925732306812287e-29</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>1.714849476265331e-42</v>
+        <v>7.045334291394157e-29</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>2.033144463078368e-42</v>
+        <v>8.268706330562113e-29</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>3.201878620280567e-42</v>
+        <v>8.584321700011524e-29</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>3.029260985027289e-42</v>
+        <v>1.139123020337511e-28</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>2.221556220799411e-42</v>
+        <v>1.269355214774078e-28</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.86241363706438e-42</v>
+        <v>1.191833317093883e-28</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.044865985347079e-28</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.567153063038799e-29</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8.494317596164329e-29</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.94858635937428e-29</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.361381113230913e-29</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.463649748787944e-29</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.185027046633232e-29</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.772443466317642e-29</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.587790683619922e-29</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.208256529464767e-29</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.220202341420459e-29</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.403781947694467e-29</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.531100531219933e-29</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.612074441979308e-29</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.823747577693396e-29</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.922115416323118e-29</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.736443683994671e-29</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.450797654836809e-29</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.816280580306495e-29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.755957464562022e-29</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.270936589850515e-29</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.123253186694148e-29</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.057108177659577e-29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.45136458949181e-29</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.080029881811425e-29</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.026198359161243e-29</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.77742217016006e-29</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.604524592209482e-29</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.467385341629433e-29</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.321755257244623e-29</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.179284301185616e-29</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.162062687203447e-29</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.428449700074477e-30</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.024794313777499e-30</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.189771891196464e-30</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.66794784201235e-30</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.02687014598415e-30</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>8.009961209880299e-31</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>6.324448391770794e-31</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6.06931680124637e-31</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>7.157750520960717e-31</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.090160005053787e-30</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.002771644328954e-30</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>7.136821958688749e-31</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.912311040146556e-31</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.15529361804092e-20</v>
+        <v>1.597678407439713e-35</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>3.406717177763845e-20</v>
+        <v>1.483319317307225e-35</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>4.612212489500143e-20</v>
+        <v>1.603402249618999e-35</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>4.292822935668646e-20</v>
+        <v>1.995634375165257e-35</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0873613516781e-20</v>
+        <v>2.326993158908668e-35</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>4.775705342976349e-20</v>
+        <v>4.067518190765464e-35</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>4.222845036265785e-20</v>
+        <v>5.875885797205847e-35</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>4.287768343464793e-20</v>
+        <v>1.459434642067856e-34</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>2.998244755021713e-20</v>
+        <v>2.166328176412267e-34</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>3.466687688647889e-20</v>
+        <v>2.042519481759368e-34</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>3.539501788055543e-20</v>
+        <v>1.440592303075958e-34</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.075419890142768e-20</v>
+        <v>6.537811649955794e-35</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>4.482346363243989e-22</v>
+        <v>4.881299599419085e-35</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.411127029633526e-22</v>
+        <v>5.988760484280713e-35</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.551157183397256e-22</v>
+        <v>2.590453753871123e-35</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>2.082111949363131e-22</v>
+        <v>1.7577959552478e-35</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>2.116796447046544e-22</v>
+        <v>9.493567684200526e-36</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.636212999414517e-22</v>
+        <v>4.39086339226816e-36</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>2.139259897044696e-22</v>
+        <v>3.253758477685113e-36</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>2.502841805088432e-22</v>
+        <v>3.098321671241231e-36</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>4.436261855989424e-22</v>
+        <v>3.520182503779763e-36</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>5.082503771825451e-22</v>
+        <v>4.076379323183426e-36</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>6.853319992316766e-22</v>
+        <v>3.67565275565988e-36</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>7.007445345844322e-22</v>
+        <v>6.927299073477942e-36</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>6.3593940907834e-22</v>
+        <v>9.953711752970694e-36</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>6.752610276749081e-22</v>
+        <v>1.984666146097159e-35</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>6.367560532273878e-22</v>
+        <v>4.267159405274533e-35</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>6.233868279404184e-22</v>
+        <v>3.59946295404707e-35</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>5.992050471879383e-22</v>
+        <v>1.638131692887287e-35</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>5.874635173836746e-22</v>
+        <v>7.393262746568702e-36</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>5.310013260723813e-22</v>
+        <v>3.166458002802181e-36</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>4.825986325908362e-22</v>
+        <v>2.765602930227724e-36</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>5.268452205861338e-22</v>
+        <v>1.614830540228266e-36</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>4.522456027753876e-22</v>
+        <v>1.288959290585927e-36</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>4.187671337794847e-22</v>
+        <v>7.130488412045639e-37</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2.712127856327771e-22</v>
+        <v>7.958709734436296e-37</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2.603344687648393e-22</v>
+        <v>1.443564017586429e-36</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>2.373060061969919e-22</v>
+        <v>6.989115515790243e-37</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>2.491046968742088e-22</v>
+        <v>2.66917221528208e-37</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>3.646088489949593e-22</v>
+        <v>2.047400827704555e-37</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>3.617082766497756e-22</v>
+        <v>1.32843920348163e-37</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>3.210878545066105e-22</v>
+        <v>1.176474928010699e-37</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>2.655263908834288e-22</v>
+        <v>1.580510417935851e-37</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>2.542024373876712e-22</v>
+        <v>3.285647029645703e-37</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>2.25308540425071e-22</v>
+        <v>3.481863163451908e-37</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.023576271640764e-22</v>
+        <v>3.402039449897429e-37</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>9.351361849907066e-23</v>
+        <v>3.2170886498756e-37</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>9.591222741980795e-23</v>
+        <v>2.611859243807631e-37</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1.15120556581522e-22</v>
+        <v>1.987807969721313e-37</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.307041749696842e-22</v>
+        <v>1.281501385280085e-37</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>2.274352976720364e-22</v>
+        <v>1.007177267031726e-37</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>3.191967682360327e-22</v>
+        <v>9.049268682972808e-38</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>7.98428646127353e-22</v>
+        <v>8.591759462323439e-38</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1.170975289280628e-21</v>
+        <v>7.774480028286239e-38</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1.067984758236994e-21</v>
+        <v>6.638822399380456e-38</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>7.394508448902711e-22</v>
+        <v>5.585712313961395e-38</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>3.291441805154739e-22</v>
+        <v>5.750956884306917e-38</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>2.425931305906288e-22</v>
+        <v>6.357677594812389e-38</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>2.960920384246638e-22</v>
+        <v>8.124618897193306e-38</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.25383345102726e-22</v>
+        <v>9.119291329228801e-38</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>8.582991572425357e-23</v>
+        <v>1.028761834005497e-37</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>4.505735247306515e-23</v>
+        <v>1.156578628298129e-37</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1.95776244267085e-23</v>
+        <v>1.16938570605783e-37</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.449188637062174e-23</v>
+        <v>1.306045174422339e-37</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.395202932139929e-23</v>
+        <v>1.361944429053062e-37</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.501502113438122e-23</v>
+        <v>1.300379460870367e-37</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.77870898665363e-23</v>
+        <v>1.308293672232396e-37</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.593464670990201e-23</v>
+        <v>1.231402918517216e-37</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>2.915153860861347e-23</v>
+        <v>1.169171654189303e-37</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>4.166070232078834e-23</v>
+        <v>1.090934705042302e-37</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>8.32576740164197e-23</v>
+        <v>1.053364997228228e-37</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.725514408779641e-22</v>
+        <v>9.559908205070543e-38</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.409104617958649e-22</v>
+        <v>9.062947696532781e-38</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>6.352144118297852e-23</v>
+        <v>6.326117223560892e-38</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>2.755982011884947e-23</v>
+        <v>5.377752961535386e-38</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>1.134749057675754e-23</v>
+        <v>4.197275768912634e-38</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>9.795088776864864e-24</v>
+        <v>2.77320386772456e-38</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>5.766655992628563e-24</v>
+        <v>2.324791046695925e-38</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>4.172411568245329e-24</v>
+        <v>1.853754119616677e-38</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>2.423393437447407e-24</v>
+        <v>1.681294274175826e-38</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>2.517905205626438e-24</v>
+        <v>1.684154669865227e-38</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>4.461022802127618e-24</v>
+        <v>1.618051671061298e-38</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>2.048880249579836e-24</v>
+        <v>1.442800933684054e-38</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>7.557726096106739e-25</v>
+        <v>1.387466797617246e-38</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>5.425685091346778e-25</v>
+        <v>1.35269621869563e-38</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>3.390757537901894e-25</v>
+        <v>1.43583604703046e-38</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>2.943544947632374e-25</v>
+        <v>1.492503188352432e-38</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>3.658713985555305e-25</v>
+        <v>1.497931180191558e-38</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>7.669663809275344e-25</v>
+        <v>1.437227558359062e-38</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>8.026094319055754e-25</v>
+        <v>1.338818389566368e-38</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>7.603861757269991e-25</v>
+        <v>1.168918448827552e-38</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>7.141762943736641e-25</v>
+        <v>9.311777092720039e-39</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>5.758588493377212e-25</v>
+        <v>4.955944953439368e-39</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>4.197731745961651e-25</v>
+        <v>3.84772209297634e-39</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>2.612577309838785e-25</v>
+        <v>2.888024772663839e-39</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.9725342575315e-25</v>
+        <v>1.909186898052297e-39</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.78253663383188e-25</v>
+        <v>1.639077695713257e-39</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.678568345325995e-25</v>
+        <v>1.515232840290087e-39</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.503750150506958e-25</v>
+        <v>1.47475848583312e-39</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.252358285856324e-25</v>
+        <v>1.354364394473339e-39</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>9.969575242446865e-26</v>
+        <v>1.328867440178816e-39</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>9.806209113211718e-26</v>
+        <v>1.33049594403372e-39</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.022248422172681e-25</v>
+        <v>1.307576306806485e-39</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1.290629459452619e-25</v>
+        <v>1.236707773587268e-39</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.403399935901271e-25</v>
+        <v>1.166456009548306e-39</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.546908156841373e-25</v>
+        <v>1.114434237225243e-39</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.713232706488942e-25</v>
+        <v>1.013986933692879e-39</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.714221283192501e-25</v>
+        <v>1.001218422914016e-39</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.876931856703818e-25</v>
+        <v>1.006179090282917e-39</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.909274733848299e-25</v>
+        <v>9.476181048801669e-40</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.804077297412628e-25</v>
+        <v>7.709498745563968e-40</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.787128447582068e-25</v>
+        <v>6.259419048377352e-40</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.657085258841481e-25</v>
+        <v>5.463934285134575e-40</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.557730080631723e-25</v>
+        <v>5.188359164938911e-40</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.443300758929814e-25</v>
+        <v>6.090083342697121e-40</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.385704339337767e-25</v>
+        <v>9.603779589093017e-40</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.249634792940163e-25</v>
+        <v>1.108751886057124e-39</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.175811925672525e-25</v>
+        <v>1.126516798623702e-39</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>7.977114145938602e-26</v>
+        <v>1.084589377090051e-39</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>6.675762023379495e-26</v>
+        <v>1.079740144944647e-39</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>5.149434702422994e-26</v>
+        <v>1.066385222627257e-39</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>3.306138099886838e-26</v>
+        <v>9.308479312914191e-40</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.726884735784534e-26</v>
+        <v>8.270320313833916e-40</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>2.140273127669436e-26</v>
+        <v>4.379743512351354e-40</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.926305366238068e-26</v>
+        <v>2.0773928414006e-40</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.927970808685597e-26</v>
+        <v>1.379429675198771e-40</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.840706433720124e-26</v>
+        <v>1.132424447757826e-40</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.621764715569808e-26</v>
+        <v>1.36868782001537e-40</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.544189318805414e-26</v>
+        <v>1.432642078461713e-40</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.491336756446802e-26</v>
+        <v>1.921713875082209e-40</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1.585177741072195e-26</v>
+        <v>2.176957408619605e-40</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1.626971368648536e-26</v>
+        <v>2.100071014002888e-40</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.621520726518251e-26</v>
+        <v>1.852166658386266e-40</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.539302241520943e-26</v>
+        <v>1.528643341289371e-40</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.427694900209408e-26</v>
+        <v>1.258496446143946e-40</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.229379141549969e-26</v>
+        <v>9.862137743339868e-41</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>9.622565818721732e-27</v>
+        <v>8.406475857312799e-41</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>4.968044159624625e-27</v>
+        <v>8.030889353683259e-41</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>3.797334754100377e-27</v>
+        <v>7.147159791101305e-41</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>2.79305771857201e-27</v>
+        <v>6.903111763949288e-41</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1.792979375663176e-27</v>
+        <v>6.384896740996109e-41</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1.504600170425488e-27</v>
+        <v>6.41418286158145e-41</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.373579644288153e-27</v>
+        <v>6.841972131549256e-41</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.328824375318281e-27</v>
+        <v>7.151894927190709e-41</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.215797816768795e-27</v>
+        <v>7.424756144100994e-41</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.189976429660025e-27</v>
+        <v>7.915457451145989e-41</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1.181763668918951e-27</v>
+        <v>8.034050399527267e-41</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1.170301101225885e-27</v>
+        <v>7.301030919772473e-41</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.104267054129849e-27</v>
+        <v>6.07741568772973e-41</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.040069854317684e-27</v>
+        <v>5.956283529779168e-41</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.00202975954267e-27</v>
+        <v>4.971584758248999e-41</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>8.752561230823761e-28</v>
+        <v>4.664179535046365e-41</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>8.64493052381191e-28</v>
+        <v>4.529584256730195e-41</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>8.610477826617396e-28</v>
+        <v>5.4109238830492e-41</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>8.070265306328172e-28</v>
+        <v>4.641516544652905e-41</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>6.485692826169466e-28</v>
+        <v>4.567957265713364e-41</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>5.154260711829413e-28</v>
+        <v>4.033768550667977e-41</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>4.441016894411051e-28</v>
+        <v>3.663625146780128e-41</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>4.215915500777858e-28</v>
+        <v>3.37800407241913e-41</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>4.847010602978826e-28</v>
+        <v>3.029807057527243e-41</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>7.697392117745253e-28</v>
+        <v>2.747475331169729e-41</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>8.897852533913165e-28</v>
+        <v>2.733202566127009e-41</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>8.937026280744621e-28</v>
+        <v>1.31078737545275e-41</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>8.569729626120846e-28</v>
+        <v>5.009998680225839e-42</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>8.407426727219499e-28</v>
+        <v>2.899005707664476e-42</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>8.322956620585215e-28</v>
+        <v>4.149256778578638e-42</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>7.161053597746616e-28</v>
+        <v>2.561436718781247e-42</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>6.302892794402068e-28</v>
+        <v>1.98825759257504e-42</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>3.223371006218217e-28</v>
+        <v>1.575911759754116e-42</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1.438108933036692e-28</v>
+        <v>1.515851861353287e-42</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>8.925732306812287e-29</v>
+        <v>1.898136101169247e-42</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>7.045334291394157e-29</v>
+        <v>2.951476074576808e-42</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>8.268706330562113e-29</v>
+        <v>2.796998865297287e-42</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>8.584321700011524e-29</v>
+        <v>2.044208750916531e-42</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.139123020337511e-28</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.269355214774078e-28</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.191833317093883e-28</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.044865985347079e-28</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>8.567153063038799e-29</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>8.494317596164329e-29</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>6.94858635937428e-29</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.361381113230913e-29</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.463649748787944e-29</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.185027046633232e-29</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>3.772443466317642e-29</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.587790683619922e-29</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.208256529464767e-29</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.220202341420459e-29</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.403781947694467e-29</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.531100531219933e-29</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.612074441979308e-29</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.823747577693396e-29</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.922115416323118e-29</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.736443683994671e-29</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.450797654836809e-29</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.816280580306495e-29</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.755957464562022e-29</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.270936589850515e-29</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.123253186694148e-29</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.057108177659577e-29</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.45136458949181e-29</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.080029881811425e-29</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.026198359161243e-29</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.77742217016006e-29</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.604524592209482e-29</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.467385341629433e-29</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.321755257244623e-29</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.179284301185616e-29</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.162062687203447e-29</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.428449700074477e-30</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.024794313777499e-30</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.189771891196464e-30</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.66794784201235e-30</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.02687014598415e-30</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>8.009961209880299e-31</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>6.324448391770794e-31</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>6.06931680124637e-31</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>7.157750520960717e-31</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.090160005053787e-30</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.002771644328954e-30</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>7.136821958688749e-31</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5.912311040146556e-31</v>
+        <v>1.712300744550545e-42</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.600000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.597678407439713e-35</v>
+        <v>8.3602456244041e-36</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.483319317307225e-35</v>
+        <v>9.201377584202075e-36</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.603402249618999e-35</v>
+        <v>1.144138361954771e-35</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1.995634375165257e-35</v>
+        <v>1.648516606650576e-35</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2.326993158908668e-35</v>
+        <v>2.090325033121204e-35</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>4.067518190765464e-35</v>
+        <v>3.730556414055179e-35</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>5.875885797205847e-35</v>
+        <v>5.702010354332513e-35</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.459434642067856e-34</v>
+        <v>1.424883162164685e-34</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>2.166328176412267e-34</v>
+        <v>2.120966625626925e-34</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>2.042519481759368e-34</v>
+        <v>2.027305090100005e-34</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.440592303075958e-34</v>
+        <v>1.421760748572525e-34</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>6.537811649955794e-35</v>
+        <v>6.474429780601764e-35</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>4.881299599419085e-35</v>
+        <v>4.73756165883645e-35</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>5.988760484280713e-35</v>
+        <v>5.913413059833435e-35</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.590453753871123e-35</v>
+        <v>2.472573875444162e-35</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.7577959552478e-35</v>
+        <v>1.679731440910915e-35</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>9.493567684200526e-36</v>
+        <v>8.212583506686536e-36</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>4.39086339226816e-36</v>
+        <v>3.550977482468462e-36</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>3.253758477685113e-36</v>
+        <v>2.61376223725459e-36</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>3.098321671241231e-36</v>
+        <v>2.353537035250745e-36</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>3.520182503779763e-36</v>
+        <v>2.992196053599589e-36</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>4.076379323183426e-36</v>
+        <v>3.867015367954009e-36</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>3.67565275565988e-36</v>
+        <v>3.094771460003918e-36</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>6.927299073477942e-36</v>
+        <v>6.008683291553025e-36</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>9.953711752970694e-36</v>
+        <v>8.816547029766249e-36</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1.984666146097159e-35</v>
+        <v>1.966224313741114e-35</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>4.267159405274533e-35</v>
+        <v>4.241669227954817e-35</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3.59946295404707e-35</v>
+        <v>3.553467147648511e-35</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1.638131692887287e-35</v>
+        <v>1.628194560415846e-35</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>7.393262746568702e-36</v>
+        <v>7.133595245855887e-36</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>3.166458002802181e-36</v>
+        <v>3.030352088993314e-36</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>2.765602930227724e-36</v>
+        <v>2.631675096212691e-36</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1.614830540228266e-36</v>
+        <v>1.660173919208943e-36</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.288959290585927e-36</v>
+        <v>9.889133488835515e-37</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>7.130488412045639e-37</v>
+        <v>6.996397209887453e-37</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>7.958709734436296e-37</v>
+        <v>7.702074565936624e-37</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.443564017586429e-36</v>
+        <v>1.419522284539595e-36</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>6.989115515790243e-37</v>
+        <v>6.869145164487682e-37</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>2.66917221528208e-37</v>
+        <v>2.447144537779501e-37</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>2.047400827704555e-37</v>
+        <v>1.794831634358724e-37</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.32843920348163e-37</v>
+        <v>1.234946695698911e-37</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.176474928010699e-37</v>
+        <v>1.075525907618211e-37</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.580510417935851e-37</v>
+        <v>1.550393741774447e-37</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>3.285647029645703e-37</v>
+        <v>3.239329354530806e-37</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>3.481863163451908e-37</v>
+        <v>3.433237759970654e-37</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>3.402039449897429e-37</v>
+        <v>3.401654282408046e-37</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>3.2170886498756e-37</v>
+        <v>3.203463163731953e-37</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>2.611859243807631e-37</v>
+        <v>2.576569020837261e-37</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1.987807969721313e-37</v>
+        <v>1.956281923971442e-37</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.281501385280085e-37</v>
+        <v>1.288348633843946e-37</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.007177267031726e-37</v>
+        <v>9.978465196213145e-38</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>9.049268682972808e-38</v>
+        <v>9.149704554936137e-38</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>8.591759462323439e-38</v>
+        <v>8.453530298043635e-38</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>7.774480028286239e-38</v>
+        <v>7.455245355972034e-38</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>6.638822399380456e-38</v>
+        <v>6.38925517711647e-38</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.585712313961395e-38</v>
+        <v>5.504706006065415e-38</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>5.750956884306917e-38</v>
+        <v>5.670213070163582e-38</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>6.357677594812389e-38</v>
+        <v>6.359586483336509e-38</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>8.124618897193306e-38</v>
+        <v>8.166935856469116e-38</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>9.119291329228801e-38</v>
+        <v>9.157065234420595e-38</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.028761834005497e-37</v>
+        <v>1.031403608571239e-37</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.156578628298129e-37</v>
+        <v>1.161924542262581e-37</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1.16938570605783e-37</v>
+        <v>1.171370772380428e-37</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.306045174422339e-37</v>
+        <v>1.307314544242779e-37</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.361944429053062e-37</v>
+        <v>1.369162576199793e-37</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.300379460870367e-37</v>
+        <v>1.304406986450971e-37</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.308293672232396e-37</v>
+        <v>1.322918436046451e-37</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.231402918517216e-37</v>
+        <v>1.234467650882586e-37</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.169171654189303e-37</v>
+        <v>1.177162188830753e-37</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.090934705042302e-37</v>
+        <v>1.095970999750231e-37</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.053364997228228e-37</v>
+        <v>1.055268504165584e-37</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>9.559908205070543e-38</v>
+        <v>9.655115640233808e-38</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>9.062947696532781e-38</v>
+        <v>9.097582849625835e-38</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>6.326117223560892e-38</v>
+        <v>6.380008177840655e-38</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5.377752961535386e-38</v>
+        <v>5.379497827335338e-38</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>4.197275768912634e-38</v>
+        <v>4.21097093716512e-38</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2.77320386772456e-38</v>
+        <v>2.790379214124041e-38</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>2.324791046695925e-38</v>
+        <v>2.336523107053698e-38</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.853754119616677e-38</v>
+        <v>1.857923187175844e-38</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.681294274175826e-38</v>
+        <v>1.688665127878432e-38</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.684154669865227e-38</v>
+        <v>1.688412685964486e-38</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.618051671061298e-38</v>
+        <v>1.623307638379866e-38</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.442800933684054e-38</v>
+        <v>1.445992879849097e-38</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.387466797617246e-38</v>
+        <v>1.389361852132366e-38</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1.35269621869563e-38</v>
+        <v>1.353681756338236e-38</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.43583604703046e-38</v>
+        <v>1.441478408747167e-38</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.492503188352432e-38</v>
+        <v>1.492650611579803e-38</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.497931180191558e-38</v>
+        <v>1.49709905369391e-38</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.437227558359062e-38</v>
+        <v>1.437795327101127e-38</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.338818389566368e-38</v>
+        <v>1.343018568814267e-38</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.168918448827552e-38</v>
+        <v>1.168116899897226e-38</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>9.311777092720039e-39</v>
+        <v>9.360042275279256e-39</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>4.955944953439368e-39</v>
+        <v>4.987325791681672e-39</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>3.84772209297634e-39</v>
+        <v>3.888145953318434e-39</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>2.888024772663839e-39</v>
+        <v>2.903010593561067e-39</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.909186898052297e-39</v>
+        <v>1.920170712354605e-39</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.639077695713257e-39</v>
+        <v>1.641614541611894e-39</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.515232840290087e-39</v>
+        <v>1.515742099683785e-39</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.47475848583312e-39</v>
+        <v>1.466174999220788e-39</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.354364394473339e-39</v>
+        <v>1.345313673870428e-39</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.328867440178816e-39</v>
+        <v>1.32982753613274e-39</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.33049594403372e-39</v>
+        <v>1.320873999394221e-39</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.307576306806485e-39</v>
+        <v>1.30937372020313e-39</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1.236707773587268e-39</v>
+        <v>1.248064893050683e-39</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.166456009548306e-39</v>
+        <v>1.161241924570986e-39</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.114434237225243e-39</v>
+        <v>1.112440773095503e-39</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.013986933692879e-39</v>
+        <v>1.008689671699593e-39</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.001218422914016e-39</v>
+        <v>9.925107498761045e-40</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.006179090282917e-39</v>
+        <v>1.00487534491846e-39</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>9.476181048801669e-40</v>
+        <v>9.336034514740618e-40</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>7.709498745563968e-40</v>
+        <v>7.64185066051624e-40</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>6.259419048377352e-40</v>
+        <v>6.286516332600305e-40</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>5.463934285134575e-40</v>
+        <v>5.464236608951863e-40</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>5.188359164938911e-40</v>
+        <v>5.258091153313473e-40</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>6.090083342697121e-40</v>
+        <v>6.067908524532292e-40</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>9.603779589093017e-40</v>
+        <v>9.55987955940069e-40</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.108751886057124e-39</v>
+        <v>1.109725870088822e-39</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.126516798623702e-39</v>
+        <v>1.12347563446973e-39</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>1.084589377090051e-39</v>
+        <v>1.083175560969452e-39</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>1.079740144944647e-39</v>
+        <v>1.078786845992952e-39</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>1.066385222627257e-39</v>
+        <v>1.070371405503208e-39</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>9.308479312914191e-40</v>
+        <v>9.360358851716981e-40</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>8.270320313833916e-40</v>
+        <v>8.324256733001013e-40</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>4.379743512351354e-40</v>
+        <v>4.38806637905318e-40</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>2.0773928414006e-40</v>
+        <v>2.094876604817486e-40</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.379429675198771e-40</v>
+        <v>1.380133930775118e-40</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.132424447757826e-40</v>
+        <v>1.141692416954258e-40</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.36868782001537e-40</v>
+        <v>1.368984294704684e-40</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.432642078461713e-40</v>
+        <v>1.429528283207386e-40</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.921713875082209e-40</v>
+        <v>1.91217916702337e-40</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>2.176957408619605e-40</v>
+        <v>2.212774394261688e-40</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2.100071014002888e-40</v>
+        <v>2.103170776956748e-40</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.852166658386266e-40</v>
+        <v>1.854407357052281e-40</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.528643341289371e-40</v>
+        <v>1.526832179149787e-40</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.258496446143946e-40</v>
+        <v>1.253434308707139e-40</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>9.862137743339868e-41</v>
+        <v>1.000529680269632e-40</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>8.406475857312799e-41</v>
+        <v>8.335578205161514e-41</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>8.030889353683259e-41</v>
+        <v>7.872588984164104e-41</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>7.147159791101305e-41</v>
+        <v>6.571007636666438e-41</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>6.903111763949288e-41</v>
+        <v>6.858453109132213e-41</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>6.384896740996109e-41</v>
+        <v>6.404835982230324e-41</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>6.41418286158145e-41</v>
+        <v>6.183695479419177e-41</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>6.841972131549256e-41</v>
+        <v>6.775034623246262e-41</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>7.151894927190709e-41</v>
+        <v>7.119160029330494e-41</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>7.424756144100994e-41</v>
+        <v>7.392823477726892e-41</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>7.915457451145989e-41</v>
+        <v>7.897902633561525e-41</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>8.034050399527267e-41</v>
+        <v>8.047703098721679e-41</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>7.301030919772473e-41</v>
+        <v>7.281248895870796e-41</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>6.07741568772973e-41</v>
+        <v>6.09667190217688e-41</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>5.956283529779168e-41</v>
+        <v>5.981231481812017e-41</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>4.971584758248999e-41</v>
+        <v>5.006023265036808e-41</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>4.664179535046365e-41</v>
+        <v>4.676384414870988e-41</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>4.529584256730195e-41</v>
+        <v>4.547603734732227e-41</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>5.4109238830492e-41</v>
+        <v>5.44040899888864e-41</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>4.641516544652905e-41</v>
+        <v>4.652316113530136e-41</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>4.567957265713364e-41</v>
+        <v>4.592266222853299e-41</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>4.033768550667977e-41</v>
+        <v>4.050486663906035e-41</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>3.663625146780128e-41</v>
+        <v>3.679686973199527e-41</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>3.37800407241913e-41</v>
+        <v>3.380526846243113e-41</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>3.029807057527243e-41</v>
+        <v>3.051125761388797e-41</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>2.747475331169729e-41</v>
+        <v>2.759857698261279e-41</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>2.733202566127009e-41</v>
+        <v>2.750404371212133e-41</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.31078737545275e-41</v>
+        <v>1.318278397676263e-41</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>5.009998680225839e-42</v>
+        <v>5.158877877669861e-42</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>2.899005707664476e-42</v>
+        <v>2.961717800395427e-42</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>4.149256778578638e-42</v>
+        <v>4.220331575802166e-42</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>2.561436718781247e-42</v>
+        <v>2.643596138973948e-42</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.98825759257504e-42</v>
+        <v>2.065206835254981e-42</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>1.575911759754116e-42</v>
+        <v>1.631489285510235e-42</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1.515851861353287e-42</v>
+        <v>1.387448471478111e-42</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1.898136101169247e-42</v>
+        <v>1.912884901062512e-42</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>2.951476074576808e-42</v>
+        <v>2.931943769592403e-42</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>2.796998865297287e-42</v>
+        <v>2.82471152578382e-42</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>2.044208750916531e-42</v>
+        <v>2.078281394792123e-42</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.712300744550545e-42</v>
+        <v>1.747110325680627e-42</v>
       </c>
     </row>
   </sheetData>
